--- a/MainTop/31.10.2025 Макс ВБ не учит ничего/spros_print_sorted_упаковано.xlsx
+++ b/MainTop/31.10.2025 Макс ВБ не учит ничего/spros_print_sorted_упаковано.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\31.10.2025 Макс ВБ не учит ничего\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE14659-54C5-4D4F-BE11-A73993F888EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3340892E-EF48-4EAA-8926-E7C6F883B98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="120">
   <si>
     <t>Артикул</t>
   </si>
@@ -169,13 +169,37 @@
     <t>Термонаклейка Тигр розовый крупный план</t>
   </si>
   <si>
+    <t>Термонаклейка Единорог очки сердечки</t>
+  </si>
+  <si>
+    <t>2_а5</t>
+  </si>
+  <si>
+    <t>Термонаклейка Леди Баг сидит</t>
+  </si>
+  <si>
+    <t>Термонаклейка Зайчик держит две морковки</t>
+  </si>
+  <si>
+    <t>Термонаклейка Ежик Соник бежит из кольца</t>
+  </si>
+  <si>
     <t>Термонаклейка Минни Маус улыбка</t>
   </si>
   <si>
-    <t>2_а5</t>
-  </si>
-  <si>
-    <t>Термонаклейка Единорог очки сердечки</t>
+    <t>Термонаклейка Марвел супергерои и надпись</t>
+  </si>
+  <si>
+    <t>Термонаклейка Черепашки Ниндзя классика</t>
+  </si>
+  <si>
+    <t>Термонаклейка Котенок выглядывает из стены</t>
+  </si>
+  <si>
+    <t>Термонаклейка Май Литл Пони радуга</t>
+  </si>
+  <si>
+    <t>Термонаклейка Миньоны горкой из 3 штук</t>
   </si>
   <si>
     <t>Коробка №2</t>
@@ -184,27 +208,6 @@
     <t>230x190x230</t>
   </si>
   <si>
-    <t>Термонаклейка Леди Баг сидит</t>
-  </si>
-  <si>
-    <t>Термонаклейка Зайчик держит две морковки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Ежик Соник бежит из кольца</t>
-  </si>
-  <si>
-    <t>Термонаклейка Марвел супергерои и надпись</t>
-  </si>
-  <si>
-    <t>Термонаклейка Черепашки Ниндзя классика</t>
-  </si>
-  <si>
-    <t>Термонаклейка Котенок выглядывает из стены</t>
-  </si>
-  <si>
-    <t>Термонаклейка Миньоны горкой из 3 штук</t>
-  </si>
-  <si>
     <t>Термонаклейка Зайка в цветах</t>
   </si>
   <si>
@@ -229,13 +232,7 @@
     <t>Термонаклейка Том и Джерри в очках</t>
   </si>
   <si>
-    <t>Термонаклейка Май Литл Пони радуга</t>
-  </si>
-  <si>
     <t>Термонаклейка Ежик Соник Тейлз Наклз Мания</t>
-  </si>
-  <si>
-    <t>Коробка №3</t>
   </si>
   <si>
     <t>Термонаклейка Эльза Анна Холодное сердце стоят</t>
@@ -406,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,12 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,14 +453,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -774,14 +764,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -821,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -833,7 +823,7 @@
         <v>128</v>
       </c>
       <c r="F2" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -847,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -859,7 +849,7 @@
         <v>128</v>
       </c>
       <c r="F3" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -873,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -885,7 +875,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -899,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -911,7 +901,7 @@
         <v>128</v>
       </c>
       <c r="F5" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -925,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -937,7 +927,7 @@
         <v>128</v>
       </c>
       <c r="F6" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -951,7 +941,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -963,7 +953,7 @@
         <v>128</v>
       </c>
       <c r="F7" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -977,7 +967,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -989,7 +979,7 @@
         <v>128</v>
       </c>
       <c r="F8" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -1003,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1015,7 +1005,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -1029,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1041,7 +1031,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -1055,7 +1045,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1067,7 +1057,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -1081,7 +1071,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1093,7 +1083,7 @@
         <v>128</v>
       </c>
       <c r="F12" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -1107,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1119,7 +1109,7 @@
         <v>128</v>
       </c>
       <c r="F13" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -1133,7 +1123,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1145,7 +1135,7 @@
         <v>128</v>
       </c>
       <c r="F14" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -1159,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1171,7 +1161,7 @@
         <v>128</v>
       </c>
       <c r="F15" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -1185,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1197,7 +1187,7 @@
         <v>128</v>
       </c>
       <c r="F16" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -1211,7 +1201,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1223,7 +1213,7 @@
         <v>128</v>
       </c>
       <c r="F17" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -1237,7 +1227,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1249,7 +1239,7 @@
         <v>128</v>
       </c>
       <c r="F18" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -1263,7 +1253,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1275,7 +1265,7 @@
         <v>128</v>
       </c>
       <c r="F19" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -1289,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1301,7 +1291,7 @@
         <v>128</v>
       </c>
       <c r="F20" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -1315,7 +1305,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1327,7 +1317,7 @@
         <v>128</v>
       </c>
       <c r="F21" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -1341,7 +1331,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1353,7 +1343,7 @@
         <v>128</v>
       </c>
       <c r="F22" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -1367,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1379,7 +1369,7 @@
         <v>128</v>
       </c>
       <c r="F23" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -1393,7 +1383,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1405,7 +1395,7 @@
         <v>128</v>
       </c>
       <c r="F24" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -1419,7 +1409,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1431,7 +1421,7 @@
         <v>128</v>
       </c>
       <c r="F25" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -1445,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1457,7 +1447,7 @@
         <v>128</v>
       </c>
       <c r="F26" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -1471,7 +1461,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1483,7 +1473,7 @@
         <v>128</v>
       </c>
       <c r="F27" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -1497,7 +1487,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1509,7 +1499,7 @@
         <v>128</v>
       </c>
       <c r="F28" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -1523,7 +1513,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1535,7 +1525,7 @@
         <v>128</v>
       </c>
       <c r="F29" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -1549,7 +1539,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1561,7 +1551,7 @@
         <v>128</v>
       </c>
       <c r="F30" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -1575,7 +1565,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1587,7 +1577,7 @@
         <v>128</v>
       </c>
       <c r="F31" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -1601,7 +1591,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1613,7 +1603,7 @@
         <v>128</v>
       </c>
       <c r="F32" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -1627,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1639,7 +1629,7 @@
         <v>128</v>
       </c>
       <c r="F33" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -1653,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1665,7 +1655,7 @@
         <v>128</v>
       </c>
       <c r="F34" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
@@ -1679,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1691,7 +1681,7 @@
         <v>128</v>
       </c>
       <c r="F35" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
@@ -1705,7 +1695,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1717,7 +1707,7 @@
         <v>128</v>
       </c>
       <c r="F36" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>47</v>
@@ -1731,7 +1721,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1743,7 +1733,7 @@
         <v>128</v>
       </c>
       <c r="F37" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>47</v>
@@ -1757,7 +1747,7 @@
         <v>49</v>
       </c>
       <c r="B38" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1769,7 +1759,7 @@
         <v>128</v>
       </c>
       <c r="F38" s="2">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>50</v>
@@ -1779,231 +1769,231 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="3">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="2">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <v>128</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <v>128</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="3">
-        <v>200</v>
-      </c>
-      <c r="F39" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>128</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="3">
-        <v>28</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="3">
-        <v>200</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B42" s="2">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="3">
-        <v>20</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B43" s="2">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>128</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="3">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="3">
-        <v>200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <v>128</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="3">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>128</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="3">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="3">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="3">
-        <v>8</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <v>128</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F47" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>50</v>
@@ -2017,19 +2007,19 @@
         <v>62</v>
       </c>
       <c r="B48" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F48" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>50</v>
@@ -2043,19 +2033,19 @@
         <v>63</v>
       </c>
       <c r="B49" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F49" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>50</v>
@@ -2069,19 +2059,19 @@
         <v>64</v>
       </c>
       <c r="B50" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E50" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F50" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>50</v>
@@ -2095,19 +2085,19 @@
         <v>65</v>
       </c>
       <c r="B51" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E51" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F51" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>50</v>
@@ -2121,19 +2111,19 @@
         <v>66</v>
       </c>
       <c r="B52" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F52" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>50</v>
@@ -2147,19 +2137,19 @@
         <v>67</v>
       </c>
       <c r="B53" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E53" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F53" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>50</v>
@@ -2173,19 +2163,19 @@
         <v>68</v>
       </c>
       <c r="B54" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>50</v>
@@ -2202,16 +2192,16 @@
         <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E55" s="3">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="F55" s="3">
-        <v>3.94</v>
+        <v>2.82</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>50</v>
@@ -2221,1276 +2211,1276 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="3">
+        <v>143</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="3">
+        <v>143</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="3">
+        <v>143</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="3">
+        <v>143</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="3">
+        <v>143</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="3">
+        <v>143</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="3">
+        <v>143</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="3">
+        <v>143</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="3">
+        <v>143</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="3">
+        <v>143</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="3">
+        <v>143</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="3">
+        <v>143</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="3">
+        <v>143</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="3">
+        <v>143</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="3">
+        <v>143</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="3">
+        <v>143</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="3">
+        <v>143</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="3">
+        <v>143</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="3">
+        <v>143</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="3">
+        <v>143</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="3">
+        <v>143</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="3">
+        <v>143</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="3">
+        <v>143</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="3">
+        <v>143</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="3">
+        <v>143</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="3">
+        <v>143</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="3">
+        <v>143</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="3">
+        <v>143</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="3">
+        <v>143</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="3">
+        <v>143</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="3">
+        <v>143</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" s="3">
+        <v>143</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E88" s="3">
+        <v>143</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89" s="3">
+        <v>143</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="3">
+        <v>143</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E91" s="3">
+        <v>143</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="3">
+        <v>143</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" s="3">
+        <v>143</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E94" s="3">
+        <v>143</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="3">
         <v>4</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="4">
-        <v>214</v>
-      </c>
-      <c r="F56" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="4">
+      <c r="C95" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E95" s="3">
+        <v>143</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="3">
         <v>4</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="4">
-        <v>214</v>
-      </c>
-      <c r="F57" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="4">
+      <c r="C96" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E96" s="3">
+        <v>143</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="3">
         <v>4</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="4">
-        <v>214</v>
-      </c>
-      <c r="F58" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="4">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="4">
-        <v>214</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="4">
-        <v>214</v>
-      </c>
-      <c r="F60" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="4">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="4">
-        <v>214</v>
-      </c>
-      <c r="F61" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="4">
-        <v>4</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="4">
-        <v>214</v>
-      </c>
-      <c r="F62" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="4">
-        <v>4</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="4">
-        <v>214</v>
-      </c>
-      <c r="F63" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="4">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="4">
-        <v>214</v>
-      </c>
-      <c r="F64" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="4">
-        <v>4</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="4">
-        <v>214</v>
-      </c>
-      <c r="F65" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="4">
-        <v>4</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="4">
-        <v>214</v>
-      </c>
-      <c r="F66" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="4">
-        <v>4</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="4">
-        <v>214</v>
-      </c>
-      <c r="F67" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="4">
-        <v>4</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="4">
-        <v>214</v>
-      </c>
-      <c r="F68" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="4">
-        <v>4</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" s="4">
-        <v>214</v>
-      </c>
-      <c r="F69" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="4">
-        <v>4</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="4">
-        <v>214</v>
-      </c>
-      <c r="F70" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="4">
-        <v>4</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="4">
-        <v>214</v>
-      </c>
-      <c r="F71" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="4">
-        <v>4</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="4">
-        <v>214</v>
-      </c>
-      <c r="F72" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="4">
-        <v>4</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="4">
-        <v>214</v>
-      </c>
-      <c r="F73" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="4">
-        <v>4</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="4">
-        <v>214</v>
-      </c>
-      <c r="F74" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="4">
-        <v>4</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="4">
-        <v>214</v>
-      </c>
-      <c r="F75" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="4">
-        <v>4</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="4">
-        <v>214</v>
-      </c>
-      <c r="F76" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="4">
-        <v>4</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="4">
-        <v>214</v>
-      </c>
-      <c r="F77" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="4">
-        <v>4</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="4">
-        <v>214</v>
-      </c>
-      <c r="F78" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" s="4">
-        <v>4</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="4">
-        <v>214</v>
-      </c>
-      <c r="F79" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="4">
-        <v>4</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" s="4">
-        <v>214</v>
-      </c>
-      <c r="F80" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="4">
-        <v>4</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" s="4">
-        <v>214</v>
-      </c>
-      <c r="F81" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" s="4">
-        <v>4</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="4">
-        <v>214</v>
-      </c>
-      <c r="F82" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="4">
-        <v>4</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="4">
-        <v>214</v>
-      </c>
-      <c r="F83" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B84" s="4">
-        <v>4</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="4">
-        <v>214</v>
-      </c>
-      <c r="F84" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85" s="4">
-        <v>4</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" s="4">
-        <v>214</v>
-      </c>
-      <c r="F85" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="4">
-        <v>4</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="4">
-        <v>214</v>
-      </c>
-      <c r="F86" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="4">
-        <v>4</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="4">
-        <v>214</v>
-      </c>
-      <c r="F87" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" s="4">
-        <v>4</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="4">
-        <v>214</v>
-      </c>
-      <c r="F88" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="4">
-        <v>4</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="4">
-        <v>214</v>
-      </c>
-      <c r="F89" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90" s="4">
-        <v>4</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" s="4">
-        <v>214</v>
-      </c>
-      <c r="F90" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B91" s="4">
-        <v>4</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="4">
-        <v>214</v>
-      </c>
-      <c r="F91" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="4">
-        <v>4</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" s="4">
-        <v>214</v>
-      </c>
-      <c r="F92" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93" s="4">
-        <v>4</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" s="4">
-        <v>214</v>
-      </c>
-      <c r="F93" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="C97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E97" s="3">
+        <v>143</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="4">
-        <v>10</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" s="4">
-        <v>214</v>
-      </c>
-      <c r="F94" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B95" s="4">
-        <v>8</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="4">
-        <v>214</v>
-      </c>
-      <c r="F95" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="4">
-        <v>8</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" s="4">
-        <v>214</v>
-      </c>
-      <c r="F96" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="4">
-        <v>8</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E97" s="4">
-        <v>214</v>
-      </c>
-      <c r="F97" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="B98" s="3">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="3">
+        <v>143</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B98" s="4">
-        <v>6</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" s="4">
-        <v>214</v>
-      </c>
-      <c r="F98" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="B99" s="3">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="3">
+        <v>143</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B99" s="4">
-        <v>6</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" s="4">
-        <v>214</v>
-      </c>
-      <c r="F99" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" s="3">
+        <v>143</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="4">
-        <v>4</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="4">
-        <v>214</v>
-      </c>
-      <c r="F100" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E101" s="3">
+        <v>143</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B101" s="4">
-        <v>4</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" s="4">
-        <v>214</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="B102" s="3">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102" s="3">
+        <v>143</v>
+      </c>
+      <c r="F102" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B102" s="4">
-        <v>4</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" s="4">
-        <v>214</v>
-      </c>
-      <c r="F102" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E103" s="3">
+        <v>143</v>
+      </c>
+      <c r="F103" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B103" s="4">
-        <v>2</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="4">
-        <v>214</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B104" s="4">
-        <v>2</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="4">
-        <v>214</v>
-      </c>
-      <c r="F104" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H104" s="4" t="s">
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="3">
+        <v>143</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/MainTop/31.10.2025 Макс ВБ не учит ничего/spros_print_sorted_упаковано.xlsx
+++ b/MainTop/31.10.2025 Макс ВБ не учит ничего/spros_print_sorted_упаковано.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\31.10.2025 Макс ВБ не учит ничего\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3340892E-EF48-4EAA-8926-E7C6F883B98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D60634-91D0-4178-83B8-E8E9077C2926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MainTop/31.10.2025 Макс ВБ не учит ничего/spros_print_sorted_упаковано.xlsx
+++ b/MainTop/31.10.2025 Макс ВБ не учит ничего/spros_print_sorted_упаковано.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\31.10.2025 Макс ВБ не учит ничего\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D60634-91D0-4178-83B8-E8E9077C2926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18F880-7E72-4567-99FA-0D70CC6C44A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
